--- a/H.Pernoctaciones viajeros (residentes en España) x CA y Mes.xlsx
+++ b/H.Pernoctaciones viajeros (residentes en España) x CA y Mes.xlsx
@@ -19,97 +19,97 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Total pernoctaciones nacionales</t>
+    <t>H Total Nights Stays Spanishs</t>
   </si>
   <si>
-    <t>pernoctaciones Andalucía</t>
+    <t>H Nights Stays Andalucía</t>
   </si>
   <si>
-    <t>pernoctaciones Aragón</t>
+    <t>H Nights Stays Aragón</t>
   </si>
   <si>
-    <t>pernoctaciones Principado de Asturias</t>
+    <t>H Nights Stays Principado de Asturias</t>
   </si>
   <si>
-    <t>pernoctaciones Illes Balears</t>
+    <t>H Nights Stays Illes Balears</t>
   </si>
   <si>
-    <t>pernoctaciones Canarias</t>
+    <t>H Nights Stays Canarias</t>
   </si>
   <si>
-    <t>pernoctaciones Cantabria</t>
+    <t>H Nights Stays Cantabria</t>
   </si>
   <si>
-    <t>pernoctaciones Castilla y León</t>
+    <t>H Nights Stays Castilla y León</t>
   </si>
   <si>
-    <t>pernoctaciones Castilla-La Mancha</t>
+    <t>H Nights Stays Castilla-La Mancha</t>
   </si>
   <si>
-    <t>pernoctaciones Cataluña</t>
+    <t>H Nights Stays Cataluña</t>
   </si>
   <si>
-    <t>pernoctaciones Comunitat Valenciana</t>
+    <t>H Nights Stays Comunitat Valenciana</t>
   </si>
   <si>
-    <t>pernoctaciones Extremadura</t>
+    <t>H Nights Stays Extremadura</t>
   </si>
   <si>
-    <t>pernoctaciones Galicia</t>
+    <t>H Nights Stays Galicia</t>
   </si>
   <si>
-    <t>pernoctaciones Comunidad de Madrid</t>
+    <t>H Nights Stays Comunidad de Madrid</t>
   </si>
   <si>
-    <t>pernoctaciones Región de Murcia</t>
+    <t>H Nights Stays Región de Murcia</t>
   </si>
   <si>
-    <t>pernoctaciones Comunidad Foral de Navarra</t>
+    <t>H Nights Stays Comunidad Foral de Navarra</t>
   </si>
   <si>
-    <t>pernoctaciones País Vasco</t>
+    <t>H Nights Stays País Vasco</t>
   </si>
   <si>
-    <t>pernoctaciones La Rioja</t>
+    <t>H Nights Stays La Rioja</t>
   </si>
   <si>
-    <t>pernoctaciones Ciudad Autónoma de Ceuta y Melilla</t>
+    <t>H Nights Stays Ceuta y Melilla</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>January</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>February</t>
   </si>
   <si>
-    <t>Marzo</t>
+    <t>March</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>April</t>
   </si>
   <si>
-    <t>Mayo</t>
+    <t>May</t>
   </si>
   <si>
-    <t>Junio</t>
+    <t>June</t>
   </si>
   <si>
-    <t>Julio</t>
+    <t>July</t>
   </si>
   <si>
-    <t>Agosto</t>
+    <t>August</t>
   </si>
   <si>
-    <t>Septiembre</t>
+    <t>September</t>
   </si>
   <si>
-    <t>Octubre</t>
+    <t>October</t>
   </si>
   <si>
-    <t>Noviembre</t>
+    <t>November</t>
   </si>
   <si>
-    <t>Diciembre</t>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <bottom style="thin">
@@ -205,12 +205,26 @@
       <right style="thin">
         <color rgb="FFDDDDDD"/>
       </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -232,20 +246,17 @@
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
@@ -259,7 +270,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -689,7 +700,7 @@
       <c r="A4" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="8">
@@ -827,7 +838,7 @@
       <c r="A6" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="8">
@@ -965,7 +976,7 @@
       <c r="A8" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8">
@@ -1103,7 +1114,7 @@
       <c r="A10" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="8">
@@ -1241,7 +1252,7 @@
       <c r="A12" s="6">
         <v>2004.0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="8">
@@ -1376,10 +1387,10 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="10">
@@ -1445,10 +1456,10 @@
       <c r="Y14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="8">
@@ -1514,10 +1525,10 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="10">
@@ -1583,10 +1594,10 @@
       <c r="Y16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="8">
@@ -1652,10 +1663,10 @@
       <c r="Y17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="10">
@@ -1721,10 +1732,10 @@
       <c r="Y18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="8">
@@ -1790,10 +1801,10 @@
       <c r="Y19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="10">
@@ -1859,10 +1870,10 @@
       <c r="Y20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="8">
@@ -1928,10 +1939,10 @@
       <c r="Y21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="10">
@@ -1997,10 +2008,10 @@
       <c r="Y22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="8">
@@ -2066,10 +2077,10 @@
       <c r="Y23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="10">
@@ -2135,10 +2146,10 @@
       <c r="Y24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>2005.0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="8">
@@ -2345,7 +2356,7 @@
       <c r="A28" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="8">
@@ -2483,7 +2494,7 @@
       <c r="A30" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="8">
@@ -2621,7 +2632,7 @@
       <c r="A32" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="8">
@@ -2759,7 +2770,7 @@
       <c r="A34" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="8">
@@ -2897,7 +2908,7 @@
       <c r="A36" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="8">
@@ -3032,10 +3043,10 @@
       <c r="Y37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="11">
+      <c r="A38" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="10">
@@ -3101,10 +3112,10 @@
       <c r="Y38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="11">
+      <c r="A39" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="8">
@@ -3170,10 +3181,10 @@
       <c r="Y39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="11">
+      <c r="A40" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="10">
@@ -3239,10 +3250,10 @@
       <c r="Y40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="11">
+      <c r="A41" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="8">
@@ -3308,10 +3319,10 @@
       <c r="Y41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="11">
+      <c r="A42" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="10">
@@ -3377,10 +3388,10 @@
       <c r="Y42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="11">
+      <c r="A43" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="8">
@@ -3446,10 +3457,10 @@
       <c r="Y43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="11">
+      <c r="A44" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="10">
@@ -3515,10 +3526,10 @@
       <c r="Y44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="11">
+      <c r="A45" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="8">
@@ -3584,10 +3595,10 @@
       <c r="Y45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="11">
+      <c r="A46" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="10">
@@ -3653,10 +3664,10 @@
       <c r="Y46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="11">
+      <c r="A47" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="8">
@@ -3722,10 +3733,10 @@
       <c r="Y47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="11">
+      <c r="A48" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="10">
@@ -3791,10 +3802,10 @@
       <c r="Y48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="11">
+      <c r="A49" s="9">
         <v>2007.0</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="8">
@@ -4001,7 +4012,7 @@
       <c r="A52" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="8">
@@ -4139,7 +4150,7 @@
       <c r="A54" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="8">
@@ -4277,7 +4288,7 @@
       <c r="A56" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="8">
@@ -4415,7 +4426,7 @@
       <c r="A58" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C58" s="8">
@@ -4553,7 +4564,7 @@
       <c r="A60" s="6">
         <v>2008.0</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C60" s="8">
@@ -4688,10 +4699,10 @@
       <c r="Y61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="11">
+      <c r="A62" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="10">
@@ -4757,10 +4768,10 @@
       <c r="Y62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="11">
+      <c r="A63" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="8">
@@ -4826,10 +4837,10 @@
       <c r="Y63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="11">
+      <c r="A64" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="10">
@@ -4895,10 +4906,10 @@
       <c r="Y64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="11">
+      <c r="A65" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="8">
@@ -4964,10 +4975,10 @@
       <c r="Y65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="11">
+      <c r="A66" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="10">
@@ -5033,10 +5044,10 @@
       <c r="Y66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="11">
+      <c r="A67" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="8">
@@ -5102,10 +5113,10 @@
       <c r="Y67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="11">
+      <c r="A68" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="10">
@@ -5171,10 +5182,10 @@
       <c r="Y68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="11">
+      <c r="A69" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="8">
@@ -5240,10 +5251,10 @@
       <c r="Y69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="11">
+      <c r="A70" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="10">
@@ -5309,10 +5320,10 @@
       <c r="Y70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="11">
+      <c r="A71" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="8">
@@ -5378,10 +5389,10 @@
       <c r="Y71" s="5"/>
     </row>
     <row r="72">
-      <c r="A72" s="11">
+      <c r="A72" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="10">
@@ -5447,10 +5458,10 @@
       <c r="Y72" s="5"/>
     </row>
     <row r="73">
-      <c r="A73" s="11">
+      <c r="A73" s="9">
         <v>2009.0</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C73" s="8">
@@ -5657,7 +5668,7 @@
       <c r="A76" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="8">
@@ -5795,7 +5806,7 @@
       <c r="A78" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="8">
@@ -5933,7 +5944,7 @@
       <c r="A80" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="8">
@@ -6071,7 +6082,7 @@
       <c r="A82" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C82" s="8">
@@ -6209,7 +6220,7 @@
       <c r="A84" s="6">
         <v>2010.0</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C84" s="8">
@@ -6344,7 +6355,7 @@
       <c r="Y85" s="5"/>
     </row>
     <row r="86">
-      <c r="A86" s="11">
+      <c r="A86" s="9">
         <v>2011.0</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -6413,7 +6424,7 @@
       <c r="Y86" s="5"/>
     </row>
     <row r="87">
-      <c r="A87" s="11">
+      <c r="A87" s="9">
         <v>2011.0</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -6482,10 +6493,10 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="11">
+      <c r="A88" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="8">
@@ -6551,7 +6562,7 @@
       <c r="Y88" s="5"/>
     </row>
     <row r="89">
-      <c r="A89" s="11">
+      <c r="A89" s="9">
         <v>2011.0</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -6620,10 +6631,10 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90">
-      <c r="A90" s="11">
+      <c r="A90" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="8">
@@ -6689,7 +6700,7 @@
       <c r="Y90" s="5"/>
     </row>
     <row r="91">
-      <c r="A91" s="11">
+      <c r="A91" s="9">
         <v>2011.0</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -6758,10 +6769,10 @@
       <c r="Y91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="11">
+      <c r="A92" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C92" s="8">
@@ -6827,7 +6838,7 @@
       <c r="Y92" s="5"/>
     </row>
     <row r="93">
-      <c r="A93" s="11">
+      <c r="A93" s="9">
         <v>2011.0</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -6896,10 +6907,10 @@
       <c r="Y93" s="5"/>
     </row>
     <row r="94">
-      <c r="A94" s="11">
+      <c r="A94" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="8">
@@ -6965,7 +6976,7 @@
       <c r="Y94" s="5"/>
     </row>
     <row r="95">
-      <c r="A95" s="11">
+      <c r="A95" s="9">
         <v>2011.0</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -7034,10 +7045,10 @@
       <c r="Y95" s="5"/>
     </row>
     <row r="96">
-      <c r="A96" s="11">
+      <c r="A96" s="9">
         <v>2011.0</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C96" s="8">
@@ -7103,7 +7114,7 @@
       <c r="Y96" s="5"/>
     </row>
     <row r="97">
-      <c r="A97" s="11">
+      <c r="A97" s="9">
         <v>2011.0</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -7175,7 +7186,7 @@
       <c r="A98" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C98" s="10">
@@ -7244,7 +7255,7 @@
       <c r="A99" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="8">
@@ -7313,7 +7324,7 @@
       <c r="A100" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C100" s="10">
@@ -7382,7 +7393,7 @@
       <c r="A101" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C101" s="8">
@@ -7451,7 +7462,7 @@
       <c r="A102" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C102" s="10">
@@ -7520,7 +7531,7 @@
       <c r="A103" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C103" s="8">
@@ -7589,7 +7600,7 @@
       <c r="A104" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C104" s="10">
@@ -7658,7 +7669,7 @@
       <c r="A105" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C105" s="8">
@@ -7727,7 +7738,7 @@
       <c r="A106" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C106" s="10">
@@ -7796,7 +7807,7 @@
       <c r="A107" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C107" s="8">
@@ -7865,7 +7876,7 @@
       <c r="A108" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C108" s="10">
@@ -7934,7 +7945,7 @@
       <c r="A109" s="6">
         <v>2012.0</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C109" s="8">
@@ -8000,7 +8011,7 @@
       <c r="Y109" s="5"/>
     </row>
     <row r="110">
-      <c r="A110" s="11">
+      <c r="A110" s="9">
         <v>2013.0</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -8069,7 +8080,7 @@
       <c r="Y110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="11">
+      <c r="A111" s="9">
         <v>2013.0</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -8138,10 +8149,10 @@
       <c r="Y111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="11">
+      <c r="A112" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C112" s="8">
@@ -8207,7 +8218,7 @@
       <c r="Y112" s="5"/>
     </row>
     <row r="113">
-      <c r="A113" s="11">
+      <c r="A113" s="9">
         <v>2013.0</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -8276,10 +8287,10 @@
       <c r="Y113" s="5"/>
     </row>
     <row r="114">
-      <c r="A114" s="11">
+      <c r="A114" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C114" s="8">
@@ -8345,7 +8356,7 @@
       <c r="Y114" s="5"/>
     </row>
     <row r="115">
-      <c r="A115" s="11">
+      <c r="A115" s="9">
         <v>2013.0</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -8414,10 +8425,10 @@
       <c r="Y115" s="5"/>
     </row>
     <row r="116">
-      <c r="A116" s="11">
+      <c r="A116" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C116" s="8">
@@ -8483,7 +8494,7 @@
       <c r="Y116" s="5"/>
     </row>
     <row r="117">
-      <c r="A117" s="11">
+      <c r="A117" s="9">
         <v>2013.0</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -8552,10 +8563,10 @@
       <c r="Y117" s="5"/>
     </row>
     <row r="118">
-      <c r="A118" s="11">
+      <c r="A118" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="8">
@@ -8621,7 +8632,7 @@
       <c r="Y118" s="5"/>
     </row>
     <row r="119">
-      <c r="A119" s="11">
+      <c r="A119" s="9">
         <v>2013.0</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -8690,10 +8701,10 @@
       <c r="Y119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="11">
+      <c r="A120" s="9">
         <v>2013.0</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C120" s="8">
@@ -8759,7 +8770,7 @@
       <c r="Y120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="11">
+      <c r="A121" s="9">
         <v>2013.0</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -8831,7 +8842,7 @@
       <c r="A122" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C122" s="10">
@@ -8900,7 +8911,7 @@
       <c r="A123" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="8">
@@ -8969,7 +8980,7 @@
       <c r="A124" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C124" s="10">
@@ -9038,7 +9049,7 @@
       <c r="A125" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C125" s="8">
@@ -9107,7 +9118,7 @@
       <c r="A126" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C126" s="10">
@@ -9176,7 +9187,7 @@
       <c r="A127" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C127" s="8">
@@ -9245,7 +9256,7 @@
       <c r="A128" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="10">
@@ -9314,7 +9325,7 @@
       <c r="A129" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C129" s="8">
@@ -9383,7 +9394,7 @@
       <c r="A130" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C130" s="10">
@@ -9452,7 +9463,7 @@
       <c r="A131" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="8">
@@ -9521,7 +9532,7 @@
       <c r="A132" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C132" s="10">
@@ -9590,7 +9601,7 @@
       <c r="A133" s="6">
         <v>2014.0</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C133" s="8">
@@ -9656,7 +9667,7 @@
       <c r="Y133" s="5"/>
     </row>
     <row r="134">
-      <c r="A134" s="11">
+      <c r="A134" s="9">
         <v>2015.0</v>
       </c>
       <c r="B134" s="7" t="s">
@@ -9725,7 +9736,7 @@
       <c r="Y134" s="5"/>
     </row>
     <row r="135">
-      <c r="A135" s="11">
+      <c r="A135" s="9">
         <v>2015.0</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -9794,10 +9805,10 @@
       <c r="Y135" s="5"/>
     </row>
     <row r="136">
-      <c r="A136" s="11">
+      <c r="A136" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C136" s="8">
@@ -9863,7 +9874,7 @@
       <c r="Y136" s="5"/>
     </row>
     <row r="137">
-      <c r="A137" s="11">
+      <c r="A137" s="9">
         <v>2015.0</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -9932,10 +9943,10 @@
       <c r="Y137" s="5"/>
     </row>
     <row r="138">
-      <c r="A138" s="11">
+      <c r="A138" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C138" s="8">
@@ -10001,7 +10012,7 @@
       <c r="Y138" s="5"/>
     </row>
     <row r="139">
-      <c r="A139" s="11">
+      <c r="A139" s="9">
         <v>2015.0</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -10070,10 +10081,10 @@
       <c r="Y139" s="5"/>
     </row>
     <row r="140">
-      <c r="A140" s="11">
+      <c r="A140" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C140" s="8">
@@ -10139,7 +10150,7 @@
       <c r="Y140" s="5"/>
     </row>
     <row r="141">
-      <c r="A141" s="11">
+      <c r="A141" s="9">
         <v>2015.0</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -10208,10 +10219,10 @@
       <c r="Y141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="11">
+      <c r="A142" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C142" s="8">
@@ -10277,7 +10288,7 @@
       <c r="Y142" s="5"/>
     </row>
     <row r="143">
-      <c r="A143" s="11">
+      <c r="A143" s="9">
         <v>2015.0</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -10346,10 +10357,10 @@
       <c r="Y143" s="5"/>
     </row>
     <row r="144">
-      <c r="A144" s="11">
+      <c r="A144" s="9">
         <v>2015.0</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C144" s="8">
@@ -10415,7 +10426,7 @@
       <c r="Y144" s="5"/>
     </row>
     <row r="145">
-      <c r="A145" s="11">
+      <c r="A145" s="9">
         <v>2015.0</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -10487,7 +10498,7 @@
       <c r="A146" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C146" s="10">
@@ -10556,7 +10567,7 @@
       <c r="A147" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C147" s="8">
@@ -10625,7 +10636,7 @@
       <c r="A148" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C148" s="10">
@@ -10694,7 +10705,7 @@
       <c r="A149" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C149" s="8">
@@ -10763,7 +10774,7 @@
       <c r="A150" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C150" s="10">
@@ -10832,7 +10843,7 @@
       <c r="A151" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C151" s="8">
@@ -10901,7 +10912,7 @@
       <c r="A152" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="10">
@@ -10970,7 +10981,7 @@
       <c r="A153" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C153" s="8">
@@ -11039,7 +11050,7 @@
       <c r="A154" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C154" s="10">
@@ -11108,7 +11119,7 @@
       <c r="A155" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C155" s="8">
@@ -11177,7 +11188,7 @@
       <c r="A156" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C156" s="10">
@@ -11246,7 +11257,7 @@
       <c r="A157" s="6">
         <v>2016.0</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C157" s="8">
@@ -11312,7 +11323,7 @@
       <c r="Y157" s="5"/>
     </row>
     <row r="158">
-      <c r="A158" s="11">
+      <c r="A158" s="9">
         <v>2017.0</v>
       </c>
       <c r="B158" s="7" t="s">
@@ -11381,7 +11392,7 @@
       <c r="Y158" s="5"/>
     </row>
     <row r="159">
-      <c r="A159" s="11">
+      <c r="A159" s="9">
         <v>2017.0</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -11450,10 +11461,10 @@
       <c r="Y159" s="5"/>
     </row>
     <row r="160">
-      <c r="A160" s="11">
+      <c r="A160" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C160" s="8">
@@ -11519,7 +11530,7 @@
       <c r="Y160" s="5"/>
     </row>
     <row r="161">
-      <c r="A161" s="11">
+      <c r="A161" s="9">
         <v>2017.0</v>
       </c>
       <c r="B161" s="9" t="s">
@@ -11588,10 +11599,10 @@
       <c r="Y161" s="5"/>
     </row>
     <row r="162">
-      <c r="A162" s="11">
+      <c r="A162" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C162" s="8">
@@ -11657,7 +11668,7 @@
       <c r="Y162" s="5"/>
     </row>
     <row r="163">
-      <c r="A163" s="11">
+      <c r="A163" s="9">
         <v>2017.0</v>
       </c>
       <c r="B163" s="9" t="s">
@@ -11726,10 +11737,10 @@
       <c r="Y163" s="5"/>
     </row>
     <row r="164">
-      <c r="A164" s="11">
+      <c r="A164" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C164" s="8">
@@ -11795,7 +11806,7 @@
       <c r="Y164" s="5"/>
     </row>
     <row r="165">
-      <c r="A165" s="11">
+      <c r="A165" s="9">
         <v>2017.0</v>
       </c>
       <c r="B165" s="9" t="s">
@@ -11864,10 +11875,10 @@
       <c r="Y165" s="5"/>
     </row>
     <row r="166">
-      <c r="A166" s="11">
+      <c r="A166" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C166" s="8">
@@ -11933,7 +11944,7 @@
       <c r="Y166" s="5"/>
     </row>
     <row r="167">
-      <c r="A167" s="11">
+      <c r="A167" s="9">
         <v>2017.0</v>
       </c>
       <c r="B167" s="9" t="s">
@@ -12002,10 +12013,10 @@
       <c r="Y167" s="5"/>
     </row>
     <row r="168">
-      <c r="A168" s="11">
+      <c r="A168" s="9">
         <v>2017.0</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C168" s="8">
@@ -12071,7 +12082,7 @@
       <c r="Y168" s="5"/>
     </row>
     <row r="169">
-      <c r="A169" s="11">
+      <c r="A169" s="9">
         <v>2017.0</v>
       </c>
       <c r="B169" s="9" t="s">
@@ -12143,7 +12154,7 @@
       <c r="A170" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C170" s="10">
@@ -12212,7 +12223,7 @@
       <c r="A171" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C171" s="8">
@@ -12281,7 +12292,7 @@
       <c r="A172" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C172" s="10">
@@ -12350,7 +12361,7 @@
       <c r="A173" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C173" s="8">
@@ -12419,7 +12430,7 @@
       <c r="A174" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C174" s="10">
@@ -12488,7 +12499,7 @@
       <c r="A175" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C175" s="8">
@@ -12557,7 +12568,7 @@
       <c r="A176" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C176" s="10">
@@ -12626,7 +12637,7 @@
       <c r="A177" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C177" s="8">
@@ -12695,7 +12706,7 @@
       <c r="A178" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C178" s="10">
@@ -12764,7 +12775,7 @@
       <c r="A179" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C179" s="8">
@@ -12833,7 +12844,7 @@
       <c r="A180" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C180" s="10">
@@ -12902,7 +12913,7 @@
       <c r="A181" s="6">
         <v>2018.0</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C181" s="8">
@@ -12968,7 +12979,7 @@
       <c r="Y181" s="5"/>
     </row>
     <row r="182">
-      <c r="A182" s="11">
+      <c r="A182" s="9">
         <v>2019.0</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -13037,7 +13048,7 @@
       <c r="Y182" s="5"/>
     </row>
     <row r="183">
-      <c r="A183" s="11">
+      <c r="A183" s="9">
         <v>2019.0</v>
       </c>
       <c r="B183" s="9" t="s">
@@ -13106,10 +13117,10 @@
       <c r="Y183" s="5"/>
     </row>
     <row r="184">
-      <c r="A184" s="11">
+      <c r="A184" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C184" s="8">
@@ -13175,7 +13186,7 @@
       <c r="Y184" s="5"/>
     </row>
     <row r="185">
-      <c r="A185" s="11">
+      <c r="A185" s="9">
         <v>2019.0</v>
       </c>
       <c r="B185" s="9" t="s">
@@ -13244,10 +13255,10 @@
       <c r="Y185" s="5"/>
     </row>
     <row r="186">
-      <c r="A186" s="11">
+      <c r="A186" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C186" s="8">
@@ -13313,7 +13324,7 @@
       <c r="Y186" s="5"/>
     </row>
     <row r="187">
-      <c r="A187" s="11">
+      <c r="A187" s="9">
         <v>2019.0</v>
       </c>
       <c r="B187" s="9" t="s">
@@ -13382,10 +13393,10 @@
       <c r="Y187" s="5"/>
     </row>
     <row r="188">
-      <c r="A188" s="11">
+      <c r="A188" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C188" s="8">
@@ -13451,7 +13462,7 @@
       <c r="Y188" s="5"/>
     </row>
     <row r="189">
-      <c r="A189" s="11">
+      <c r="A189" s="9">
         <v>2019.0</v>
       </c>
       <c r="B189" s="9" t="s">
@@ -13520,10 +13531,10 @@
       <c r="Y189" s="5"/>
     </row>
     <row r="190">
-      <c r="A190" s="11">
+      <c r="A190" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C190" s="8">
@@ -13589,7 +13600,7 @@
       <c r="Y190" s="5"/>
     </row>
     <row r="191">
-      <c r="A191" s="11">
+      <c r="A191" s="9">
         <v>2019.0</v>
       </c>
       <c r="B191" s="9" t="s">
@@ -13658,10 +13669,10 @@
       <c r="Y191" s="5"/>
     </row>
     <row r="192">
-      <c r="A192" s="11">
+      <c r="A192" s="9">
         <v>2019.0</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C192" s="8">
@@ -13727,7 +13738,7 @@
       <c r="Y192" s="5"/>
     </row>
     <row r="193">
-      <c r="A193" s="11">
+      <c r="A193" s="9">
         <v>2019.0</v>
       </c>
       <c r="B193" s="9" t="s">
@@ -13799,7 +13810,7 @@
       <c r="A194" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C194" s="10">
@@ -13868,7 +13879,7 @@
       <c r="A195" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C195" s="8">
@@ -13937,7 +13948,7 @@
       <c r="A196" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C196" s="10">
@@ -14006,64 +14017,64 @@
       <c r="A197" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C197" s="12">
+      <c r="C197" s="11">
         <v>0.0</v>
       </c>
-      <c r="D197" s="12">
+      <c r="D197" s="11">
         <v>0.0</v>
       </c>
-      <c r="E197" s="12">
+      <c r="E197" s="11">
         <v>0.0</v>
       </c>
-      <c r="F197" s="12">
+      <c r="F197" s="11">
         <v>0.0</v>
       </c>
-      <c r="G197" s="12">
+      <c r="G197" s="11">
         <v>0.0</v>
       </c>
-      <c r="H197" s="12">
+      <c r="H197" s="11">
         <v>0.0</v>
       </c>
-      <c r="I197" s="12">
+      <c r="I197" s="11">
         <v>0.0</v>
       </c>
-      <c r="J197" s="12">
+      <c r="J197" s="11">
         <v>0.0</v>
       </c>
-      <c r="K197" s="12">
+      <c r="K197" s="11">
         <v>0.0</v>
       </c>
-      <c r="L197" s="12">
+      <c r="L197" s="11">
         <v>0.0</v>
       </c>
-      <c r="M197" s="12">
+      <c r="M197" s="11">
         <v>0.0</v>
       </c>
-      <c r="N197" s="12">
+      <c r="N197" s="11">
         <v>0.0</v>
       </c>
-      <c r="O197" s="12">
+      <c r="O197" s="11">
         <v>0.0</v>
       </c>
-      <c r="P197" s="12">
+      <c r="P197" s="11">
         <v>0.0</v>
       </c>
-      <c r="Q197" s="12">
+      <c r="Q197" s="11">
         <v>0.0</v>
       </c>
-      <c r="R197" s="12">
+      <c r="R197" s="11">
         <v>0.0</v>
       </c>
-      <c r="S197" s="12">
+      <c r="S197" s="11">
         <v>0.0</v>
       </c>
-      <c r="T197" s="12">
+      <c r="T197" s="11">
         <v>0.0</v>
       </c>
-      <c r="U197" s="12">
+      <c r="U197" s="11">
         <v>0.0</v>
       </c>
       <c r="V197" s="5"/>
@@ -14075,64 +14086,64 @@
       <c r="A198" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C198" s="13">
+      <c r="C198" s="12">
         <v>0.0</v>
       </c>
-      <c r="D198" s="13">
+      <c r="D198" s="12">
         <v>0.0</v>
       </c>
-      <c r="E198" s="13">
+      <c r="E198" s="12">
         <v>0.0</v>
       </c>
-      <c r="F198" s="13">
+      <c r="F198" s="12">
         <v>0.0</v>
       </c>
-      <c r="G198" s="13">
+      <c r="G198" s="12">
         <v>0.0</v>
       </c>
-      <c r="H198" s="13">
+      <c r="H198" s="12">
         <v>0.0</v>
       </c>
-      <c r="I198" s="13">
+      <c r="I198" s="12">
         <v>0.0</v>
       </c>
-      <c r="J198" s="13">
+      <c r="J198" s="12">
         <v>0.0</v>
       </c>
-      <c r="K198" s="13">
+      <c r="K198" s="12">
         <v>0.0</v>
       </c>
-      <c r="L198" s="13">
+      <c r="L198" s="12">
         <v>0.0</v>
       </c>
-      <c r="M198" s="13">
+      <c r="M198" s="12">
         <v>0.0</v>
       </c>
-      <c r="N198" s="13">
+      <c r="N198" s="12">
         <v>0.0</v>
       </c>
-      <c r="O198" s="13">
+      <c r="O198" s="12">
         <v>0.0</v>
       </c>
-      <c r="P198" s="13">
+      <c r="P198" s="12">
         <v>0.0</v>
       </c>
-      <c r="Q198" s="13">
+      <c r="Q198" s="12">
         <v>0.0</v>
       </c>
-      <c r="R198" s="13">
+      <c r="R198" s="12">
         <v>0.0</v>
       </c>
-      <c r="S198" s="13">
+      <c r="S198" s="12">
         <v>0.0</v>
       </c>
-      <c r="T198" s="13">
+      <c r="T198" s="12">
         <v>0.0</v>
       </c>
-      <c r="U198" s="13">
+      <c r="U198" s="12">
         <v>0.0</v>
       </c>
       <c r="V198" s="5"/>
@@ -14144,64 +14155,64 @@
       <c r="A199" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C199" s="12">
+      <c r="C199" s="11">
         <v>0.0</v>
       </c>
-      <c r="D199" s="12">
+      <c r="D199" s="11">
         <v>0.0</v>
       </c>
-      <c r="E199" s="12">
+      <c r="E199" s="11">
         <v>0.0</v>
       </c>
-      <c r="F199" s="12">
+      <c r="F199" s="11">
         <v>0.0</v>
       </c>
-      <c r="G199" s="12">
+      <c r="G199" s="11">
         <v>0.0</v>
       </c>
-      <c r="H199" s="12">
+      <c r="H199" s="11">
         <v>0.0</v>
       </c>
-      <c r="I199" s="12">
+      <c r="I199" s="11">
         <v>0.0</v>
       </c>
-      <c r="J199" s="12">
+      <c r="J199" s="11">
         <v>0.0</v>
       </c>
-      <c r="K199" s="12">
+      <c r="K199" s="11">
         <v>0.0</v>
       </c>
-      <c r="L199" s="12">
+      <c r="L199" s="11">
         <v>0.0</v>
       </c>
-      <c r="M199" s="12">
+      <c r="M199" s="11">
         <v>0.0</v>
       </c>
-      <c r="N199" s="12">
+      <c r="N199" s="11">
         <v>0.0</v>
       </c>
-      <c r="O199" s="12">
+      <c r="O199" s="11">
         <v>0.0</v>
       </c>
-      <c r="P199" s="12">
+      <c r="P199" s="11">
         <v>0.0</v>
       </c>
-      <c r="Q199" s="12">
+      <c r="Q199" s="11">
         <v>0.0</v>
       </c>
-      <c r="R199" s="12">
+      <c r="R199" s="11">
         <v>0.0</v>
       </c>
-      <c r="S199" s="12">
+      <c r="S199" s="11">
         <v>0.0</v>
       </c>
-      <c r="T199" s="12">
+      <c r="T199" s="11">
         <v>0.0</v>
       </c>
-      <c r="U199" s="12">
+      <c r="U199" s="11">
         <v>0.0</v>
       </c>
       <c r="V199" s="5"/>
@@ -14213,7 +14224,7 @@
       <c r="A200" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C200" s="10">
@@ -14267,10 +14278,10 @@
       <c r="S200" s="10">
         <v>9314.0</v>
       </c>
-      <c r="T200" s="13">
+      <c r="T200" s="12">
         <v>951.0</v>
       </c>
-      <c r="U200" s="13">
+      <c r="U200" s="12">
         <v>418.0</v>
       </c>
       <c r="V200" s="5"/>
@@ -14282,7 +14293,7 @@
       <c r="A201" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C201" s="8">
@@ -14336,10 +14347,10 @@
       <c r="S201" s="8">
         <v>9723.0</v>
       </c>
-      <c r="T201" s="12">
+      <c r="T201" s="11">
         <v>945.0</v>
       </c>
-      <c r="U201" s="12">
+      <c r="U201" s="11">
         <v>438.0</v>
       </c>
       <c r="V201" s="5"/>
@@ -14351,7 +14362,7 @@
       <c r="A202" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C202" s="10">
@@ -14408,7 +14419,7 @@
       <c r="T202" s="10">
         <v>1706.0</v>
       </c>
-      <c r="U202" s="13">
+      <c r="U202" s="12">
         <v>720.0</v>
       </c>
       <c r="V202" s="5"/>
@@ -14420,7 +14431,7 @@
       <c r="A203" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C203" s="8">
@@ -14474,10 +14485,10 @@
       <c r="S203" s="8">
         <v>5476.0</v>
       </c>
-      <c r="T203" s="12">
+      <c r="T203" s="11">
         <v>735.0</v>
       </c>
-      <c r="U203" s="12">
+      <c r="U203" s="11">
         <v>111.0</v>
       </c>
       <c r="V203" s="5"/>
@@ -14489,7 +14500,7 @@
       <c r="A204" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C204" s="10">
@@ -14543,10 +14554,10 @@
       <c r="S204" s="10">
         <v>6250.0</v>
       </c>
-      <c r="T204" s="13">
+      <c r="T204" s="12">
         <v>953.0</v>
       </c>
-      <c r="U204" s="13">
+      <c r="U204" s="12">
         <v>487.0</v>
       </c>
       <c r="V204" s="5"/>
@@ -14558,7 +14569,7 @@
       <c r="A205" s="6">
         <v>2020.0</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C205" s="8">
@@ -14615,7 +14626,7 @@
       <c r="T205" s="8">
         <v>1399.0</v>
       </c>
-      <c r="U205" s="12">
+      <c r="U205" s="11">
         <v>947.0</v>
       </c>
       <c r="V205" s="5"/>
@@ -14624,7 +14635,7 @@
       <c r="Y205" s="5"/>
     </row>
     <row r="206">
-      <c r="A206" s="11">
+      <c r="A206" s="9">
         <v>2021.0</v>
       </c>
       <c r="B206" s="7" t="s">
@@ -14684,7 +14695,7 @@
       <c r="T206" s="8">
         <v>1925.0</v>
       </c>
-      <c r="U206" s="12">
+      <c r="U206" s="11">
         <v>876.0</v>
       </c>
       <c r="V206" s="5"/>
@@ -14693,7 +14704,7 @@
       <c r="Y206" s="5"/>
     </row>
     <row r="207">
-      <c r="A207" s="11">
+      <c r="A207" s="9">
         <v>2021.0</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -14753,7 +14764,7 @@
       <c r="T207" s="10">
         <v>2388.0</v>
       </c>
-      <c r="U207" s="13">
+      <c r="U207" s="12">
         <v>573.0</v>
       </c>
       <c r="V207" s="5"/>
@@ -14762,10 +14773,10 @@
       <c r="Y207" s="5"/>
     </row>
     <row r="208">
-      <c r="A208" s="11">
+      <c r="A208" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C208" s="8">
@@ -14822,7 +14833,7 @@
       <c r="T208" s="8">
         <v>2621.0</v>
       </c>
-      <c r="U208" s="12">
+      <c r="U208" s="11">
         <v>675.0</v>
       </c>
       <c r="V208" s="5"/>
@@ -14831,7 +14842,7 @@
       <c r="Y208" s="5"/>
     </row>
     <row r="209">
-      <c r="A209" s="11">
+      <c r="A209" s="9">
         <v>2021.0</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -14891,7 +14902,7 @@
       <c r="T209" s="10">
         <v>1676.0</v>
       </c>
-      <c r="U209" s="13">
+      <c r="U209" s="12">
         <v>873.0</v>
       </c>
       <c r="V209" s="5"/>
@@ -14900,10 +14911,10 @@
       <c r="Y209" s="5"/>
     </row>
     <row r="210">
-      <c r="A210" s="11">
+      <c r="A210" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C210" s="8">
@@ -14969,7 +14980,7 @@
       <c r="Y210" s="5"/>
     </row>
     <row r="211">
-      <c r="A211" s="11">
+      <c r="A211" s="9">
         <v>2021.0</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -15038,10 +15049,10 @@
       <c r="Y211" s="5"/>
     </row>
     <row r="212">
-      <c r="A212" s="11">
+      <c r="A212" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C212" s="8">
@@ -15107,7 +15118,7 @@
       <c r="Y212" s="5"/>
     </row>
     <row r="213">
-      <c r="A213" s="11">
+      <c r="A213" s="9">
         <v>2021.0</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -15167,7 +15178,7 @@
       <c r="T213" s="10">
         <v>3525.0</v>
       </c>
-      <c r="U213" s="13">
+      <c r="U213" s="12">
         <v>882.0</v>
       </c>
       <c r="V213" s="5"/>
@@ -15176,10 +15187,10 @@
       <c r="Y213" s="5"/>
     </row>
     <row r="214">
-      <c r="A214" s="11">
+      <c r="A214" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C214" s="8">
@@ -15245,7 +15256,7 @@
       <c r="Y214" s="5"/>
     </row>
     <row r="215">
-      <c r="A215" s="11">
+      <c r="A215" s="9">
         <v>2021.0</v>
       </c>
       <c r="B215" s="9" t="s">
@@ -15314,10 +15325,10 @@
       <c r="Y215" s="5"/>
     </row>
     <row r="216">
-      <c r="A216" s="11">
+      <c r="A216" s="9">
         <v>2021.0</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C216" s="8">
@@ -15383,7 +15394,7 @@
       <c r="Y216" s="5"/>
     </row>
     <row r="217">
-      <c r="A217" s="11">
+      <c r="A217" s="9">
         <v>2021.0</v>
       </c>
       <c r="B217" s="9" t="s">
@@ -15455,7 +15466,7 @@
       <c r="A218" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C218" s="10">
@@ -15512,7 +15523,7 @@
       <c r="T218" s="10">
         <v>5099.0</v>
       </c>
-      <c r="U218" s="13">
+      <c r="U218" s="12">
         <v>833.0</v>
       </c>
       <c r="V218" s="5"/>
@@ -15524,7 +15535,7 @@
       <c r="A219" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C219" s="8">
@@ -15593,7 +15604,7 @@
       <c r="A220" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C220" s="10">
@@ -15662,7 +15673,7 @@
       <c r="A221" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C221" s="8">
@@ -15731,7 +15742,7 @@
       <c r="A222" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="10">
@@ -15800,7 +15811,7 @@
       <c r="A223" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C223" s="8">
@@ -15869,7 +15880,7 @@
       <c r="A224" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C224" s="10">
@@ -15938,7 +15949,7 @@
       <c r="A225" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C225" s="8">
@@ -16007,7 +16018,7 @@
       <c r="A226" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C226" s="10">
@@ -16076,7 +16087,7 @@
       <c r="A227" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C227" s="8">
@@ -16145,7 +16156,7 @@
       <c r="A228" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C228" s="10">
@@ -16214,7 +16225,7 @@
       <c r="A229" s="6">
         <v>2022.0</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C229" s="8">
@@ -16280,7 +16291,7 @@
       <c r="Y229" s="5"/>
     </row>
     <row r="230">
-      <c r="A230" s="11">
+      <c r="A230" s="9">
         <v>2023.0</v>
       </c>
       <c r="B230" s="7" t="s">
@@ -16349,67 +16360,67 @@
       <c r="Y230" s="5"/>
     </row>
     <row r="231">
-      <c r="A231" s="11">
+      <c r="A231" s="9">
         <v>2023.0</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C231" s="14">
+      <c r="C231" s="13">
         <v>0.0</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D231" s="14">
         <v>0.0</v>
       </c>
-      <c r="E231" s="14">
+      <c r="E231" s="13">
         <v>0.0</v>
       </c>
-      <c r="F231" s="14">
+      <c r="F231" s="13">
         <v>0.0</v>
       </c>
-      <c r="G231" s="14">
+      <c r="G231" s="13">
         <v>0.0</v>
       </c>
-      <c r="H231" s="14">
+      <c r="H231" s="13">
         <v>0.0</v>
       </c>
-      <c r="I231" s="14">
+      <c r="I231" s="13">
         <v>0.0</v>
       </c>
-      <c r="J231" s="14">
+      <c r="J231" s="13">
         <v>0.0</v>
       </c>
-      <c r="K231" s="14">
+      <c r="K231" s="13">
         <v>0.0</v>
       </c>
-      <c r="L231" s="14">
+      <c r="L231" s="13">
         <v>0.0</v>
       </c>
-      <c r="M231" s="14">
+      <c r="M231" s="13">
         <v>0.0</v>
       </c>
-      <c r="N231" s="14">
+      <c r="N231" s="13">
         <v>0.0</v>
       </c>
-      <c r="O231" s="14">
+      <c r="O231" s="13">
         <v>0.0</v>
       </c>
-      <c r="P231" s="14">
+      <c r="P231" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q231" s="14">
+      <c r="Q231" s="13">
         <v>0.0</v>
       </c>
-      <c r="R231" s="14">
+      <c r="R231" s="13">
         <v>0.0</v>
       </c>
-      <c r="S231" s="14">
+      <c r="S231" s="13">
         <v>0.0</v>
       </c>
-      <c r="T231" s="14">
+      <c r="T231" s="13">
         <v>0.0</v>
       </c>
-      <c r="U231" s="14">
+      <c r="U231" s="13">
         <v>0.0</v>
       </c>
       <c r="V231" s="5"/>
@@ -16418,67 +16429,67 @@
       <c r="Y231" s="5"/>
     </row>
     <row r="232">
-      <c r="A232" s="11">
+      <c r="A232" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C232" s="14">
+      <c r="C232" s="13">
         <v>0.0</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D232" s="14">
         <v>0.0</v>
       </c>
-      <c r="E232" s="14">
+      <c r="E232" s="13">
         <v>0.0</v>
       </c>
-      <c r="F232" s="14">
+      <c r="F232" s="13">
         <v>0.0</v>
       </c>
-      <c r="G232" s="14">
+      <c r="G232" s="13">
         <v>0.0</v>
       </c>
-      <c r="H232" s="14">
+      <c r="H232" s="13">
         <v>0.0</v>
       </c>
-      <c r="I232" s="14">
+      <c r="I232" s="13">
         <v>0.0</v>
       </c>
-      <c r="J232" s="14">
+      <c r="J232" s="13">
         <v>0.0</v>
       </c>
-      <c r="K232" s="14">
+      <c r="K232" s="13">
         <v>0.0</v>
       </c>
-      <c r="L232" s="14">
+      <c r="L232" s="13">
         <v>0.0</v>
       </c>
-      <c r="M232" s="14">
+      <c r="M232" s="13">
         <v>0.0</v>
       </c>
-      <c r="N232" s="14">
+      <c r="N232" s="13">
         <v>0.0</v>
       </c>
-      <c r="O232" s="14">
+      <c r="O232" s="13">
         <v>0.0</v>
       </c>
-      <c r="P232" s="14">
+      <c r="P232" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q232" s="14">
+      <c r="Q232" s="13">
         <v>0.0</v>
       </c>
-      <c r="R232" s="14">
+      <c r="R232" s="13">
         <v>0.0</v>
       </c>
-      <c r="S232" s="14">
+      <c r="S232" s="13">
         <v>0.0</v>
       </c>
-      <c r="T232" s="14">
+      <c r="T232" s="13">
         <v>0.0</v>
       </c>
-      <c r="U232" s="14">
+      <c r="U232" s="13">
         <v>0.0</v>
       </c>
       <c r="V232" s="5"/>
@@ -16487,67 +16498,67 @@
       <c r="Y232" s="5"/>
     </row>
     <row r="233">
-      <c r="A233" s="11">
+      <c r="A233" s="9">
         <v>2023.0</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C233" s="14">
+      <c r="C233" s="13">
         <v>0.0</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="14">
         <v>0.0</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E233" s="13">
         <v>0.0</v>
       </c>
-      <c r="F233" s="14">
+      <c r="F233" s="13">
         <v>0.0</v>
       </c>
-      <c r="G233" s="14">
+      <c r="G233" s="13">
         <v>0.0</v>
       </c>
-      <c r="H233" s="14">
+      <c r="H233" s="13">
         <v>0.0</v>
       </c>
-      <c r="I233" s="14">
+      <c r="I233" s="13">
         <v>0.0</v>
       </c>
-      <c r="J233" s="14">
+      <c r="J233" s="13">
         <v>0.0</v>
       </c>
-      <c r="K233" s="14">
+      <c r="K233" s="13">
         <v>0.0</v>
       </c>
-      <c r="L233" s="14">
+      <c r="L233" s="13">
         <v>0.0</v>
       </c>
-      <c r="M233" s="14">
+      <c r="M233" s="13">
         <v>0.0</v>
       </c>
-      <c r="N233" s="14">
+      <c r="N233" s="13">
         <v>0.0</v>
       </c>
-      <c r="O233" s="14">
+      <c r="O233" s="13">
         <v>0.0</v>
       </c>
-      <c r="P233" s="14">
+      <c r="P233" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q233" s="14">
+      <c r="Q233" s="13">
         <v>0.0</v>
       </c>
-      <c r="R233" s="14">
+      <c r="R233" s="13">
         <v>0.0</v>
       </c>
-      <c r="S233" s="14">
+      <c r="S233" s="13">
         <v>0.0</v>
       </c>
-      <c r="T233" s="14">
+      <c r="T233" s="13">
         <v>0.0</v>
       </c>
-      <c r="U233" s="14">
+      <c r="U233" s="13">
         <v>0.0</v>
       </c>
       <c r="V233" s="5"/>
@@ -16556,67 +16567,67 @@
       <c r="Y233" s="5"/>
     </row>
     <row r="234">
-      <c r="A234" s="11">
+      <c r="A234" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C234" s="14">
+      <c r="C234" s="13">
         <v>0.0</v>
       </c>
-      <c r="D234" s="15">
+      <c r="D234" s="14">
         <v>0.0</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E234" s="13">
         <v>0.0</v>
       </c>
-      <c r="F234" s="14">
+      <c r="F234" s="13">
         <v>0.0</v>
       </c>
-      <c r="G234" s="14">
+      <c r="G234" s="13">
         <v>0.0</v>
       </c>
-      <c r="H234" s="14">
+      <c r="H234" s="13">
         <v>0.0</v>
       </c>
-      <c r="I234" s="14">
+      <c r="I234" s="13">
         <v>0.0</v>
       </c>
-      <c r="J234" s="14">
+      <c r="J234" s="13">
         <v>0.0</v>
       </c>
-      <c r="K234" s="14">
+      <c r="K234" s="13">
         <v>0.0</v>
       </c>
-      <c r="L234" s="14">
+      <c r="L234" s="13">
         <v>0.0</v>
       </c>
-      <c r="M234" s="14">
+      <c r="M234" s="13">
         <v>0.0</v>
       </c>
-      <c r="N234" s="14">
+      <c r="N234" s="13">
         <v>0.0</v>
       </c>
-      <c r="O234" s="14">
+      <c r="O234" s="13">
         <v>0.0</v>
       </c>
-      <c r="P234" s="14">
+      <c r="P234" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q234" s="14">
+      <c r="Q234" s="13">
         <v>0.0</v>
       </c>
-      <c r="R234" s="14">
+      <c r="R234" s="13">
         <v>0.0</v>
       </c>
-      <c r="S234" s="14">
+      <c r="S234" s="13">
         <v>0.0</v>
       </c>
-      <c r="T234" s="14">
+      <c r="T234" s="13">
         <v>0.0</v>
       </c>
-      <c r="U234" s="14">
+      <c r="U234" s="13">
         <v>0.0</v>
       </c>
       <c r="V234" s="5"/>
@@ -16625,67 +16636,67 @@
       <c r="Y234" s="5"/>
     </row>
     <row r="235">
-      <c r="A235" s="11">
+      <c r="A235" s="9">
         <v>2023.0</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C235" s="14">
+      <c r="C235" s="13">
         <v>0.0</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D235" s="14">
         <v>0.0</v>
       </c>
-      <c r="E235" s="14">
+      <c r="E235" s="13">
         <v>0.0</v>
       </c>
-      <c r="F235" s="14">
+      <c r="F235" s="13">
         <v>0.0</v>
       </c>
-      <c r="G235" s="14">
+      <c r="G235" s="13">
         <v>0.0</v>
       </c>
-      <c r="H235" s="14">
+      <c r="H235" s="13">
         <v>0.0</v>
       </c>
-      <c r="I235" s="14">
+      <c r="I235" s="13">
         <v>0.0</v>
       </c>
-      <c r="J235" s="14">
+      <c r="J235" s="13">
         <v>0.0</v>
       </c>
-      <c r="K235" s="14">
+      <c r="K235" s="13">
         <v>0.0</v>
       </c>
-      <c r="L235" s="14">
+      <c r="L235" s="13">
         <v>0.0</v>
       </c>
-      <c r="M235" s="14">
+      <c r="M235" s="13">
         <v>0.0</v>
       </c>
-      <c r="N235" s="14">
+      <c r="N235" s="13">
         <v>0.0</v>
       </c>
-      <c r="O235" s="14">
+      <c r="O235" s="13">
         <v>0.0</v>
       </c>
-      <c r="P235" s="14">
+      <c r="P235" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q235" s="14">
+      <c r="Q235" s="13">
         <v>0.0</v>
       </c>
-      <c r="R235" s="14">
+      <c r="R235" s="13">
         <v>0.0</v>
       </c>
-      <c r="S235" s="14">
+      <c r="S235" s="13">
         <v>0.0</v>
       </c>
-      <c r="T235" s="14">
+      <c r="T235" s="13">
         <v>0.0</v>
       </c>
-      <c r="U235" s="14">
+      <c r="U235" s="13">
         <v>0.0</v>
       </c>
       <c r="V235" s="5"/>
@@ -16694,67 +16705,67 @@
       <c r="Y235" s="5"/>
     </row>
     <row r="236">
-      <c r="A236" s="11">
+      <c r="A236" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C236" s="14">
+      <c r="C236" s="13">
         <v>0.0</v>
       </c>
-      <c r="D236" s="15">
+      <c r="D236" s="14">
         <v>0.0</v>
       </c>
-      <c r="E236" s="14">
+      <c r="E236" s="13">
         <v>0.0</v>
       </c>
-      <c r="F236" s="14">
+      <c r="F236" s="13">
         <v>0.0</v>
       </c>
-      <c r="G236" s="14">
+      <c r="G236" s="13">
         <v>0.0</v>
       </c>
-      <c r="H236" s="14">
+      <c r="H236" s="13">
         <v>0.0</v>
       </c>
-      <c r="I236" s="14">
+      <c r="I236" s="13">
         <v>0.0</v>
       </c>
-      <c r="J236" s="14">
+      <c r="J236" s="13">
         <v>0.0</v>
       </c>
-      <c r="K236" s="14">
+      <c r="K236" s="13">
         <v>0.0</v>
       </c>
-      <c r="L236" s="14">
+      <c r="L236" s="13">
         <v>0.0</v>
       </c>
-      <c r="M236" s="14">
+      <c r="M236" s="13">
         <v>0.0</v>
       </c>
-      <c r="N236" s="14">
+      <c r="N236" s="13">
         <v>0.0</v>
       </c>
-      <c r="O236" s="14">
+      <c r="O236" s="13">
         <v>0.0</v>
       </c>
-      <c r="P236" s="14">
+      <c r="P236" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q236" s="14">
+      <c r="Q236" s="13">
         <v>0.0</v>
       </c>
-      <c r="R236" s="14">
+      <c r="R236" s="13">
         <v>0.0</v>
       </c>
-      <c r="S236" s="14">
+      <c r="S236" s="13">
         <v>0.0</v>
       </c>
-      <c r="T236" s="14">
+      <c r="T236" s="13">
         <v>0.0</v>
       </c>
-      <c r="U236" s="14">
+      <c r="U236" s="13">
         <v>0.0</v>
       </c>
       <c r="V236" s="5"/>
@@ -16763,67 +16774,67 @@
       <c r="Y236" s="5"/>
     </row>
     <row r="237">
-      <c r="A237" s="11">
+      <c r="A237" s="9">
         <v>2023.0</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C237" s="14">
+      <c r="C237" s="13">
         <v>0.0</v>
       </c>
-      <c r="D237" s="15">
+      <c r="D237" s="14">
         <v>0.0</v>
       </c>
-      <c r="E237" s="14">
+      <c r="E237" s="13">
         <v>0.0</v>
       </c>
-      <c r="F237" s="14">
+      <c r="F237" s="13">
         <v>0.0</v>
       </c>
-      <c r="G237" s="14">
+      <c r="G237" s="13">
         <v>0.0</v>
       </c>
-      <c r="H237" s="14">
+      <c r="H237" s="13">
         <v>0.0</v>
       </c>
-      <c r="I237" s="14">
+      <c r="I237" s="13">
         <v>0.0</v>
       </c>
-      <c r="J237" s="14">
+      <c r="J237" s="13">
         <v>0.0</v>
       </c>
-      <c r="K237" s="14">
+      <c r="K237" s="13">
         <v>0.0</v>
       </c>
-      <c r="L237" s="14">
+      <c r="L237" s="13">
         <v>0.0</v>
       </c>
-      <c r="M237" s="14">
+      <c r="M237" s="13">
         <v>0.0</v>
       </c>
-      <c r="N237" s="14">
+      <c r="N237" s="13">
         <v>0.0</v>
       </c>
-      <c r="O237" s="14">
+      <c r="O237" s="13">
         <v>0.0</v>
       </c>
-      <c r="P237" s="14">
+      <c r="P237" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q237" s="14">
+      <c r="Q237" s="13">
         <v>0.0</v>
       </c>
-      <c r="R237" s="14">
+      <c r="R237" s="13">
         <v>0.0</v>
       </c>
-      <c r="S237" s="14">
+      <c r="S237" s="13">
         <v>0.0</v>
       </c>
-      <c r="T237" s="14">
+      <c r="T237" s="13">
         <v>0.0</v>
       </c>
-      <c r="U237" s="14">
+      <c r="U237" s="13">
         <v>0.0</v>
       </c>
       <c r="V237" s="5"/>
@@ -16832,67 +16843,67 @@
       <c r="Y237" s="5"/>
     </row>
     <row r="238">
-      <c r="A238" s="11">
+      <c r="A238" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C238" s="14">
+      <c r="C238" s="13">
         <v>0.0</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="14">
         <v>0.0</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238" s="13">
         <v>0.0</v>
       </c>
-      <c r="F238" s="14">
+      <c r="F238" s="13">
         <v>0.0</v>
       </c>
-      <c r="G238" s="14">
+      <c r="G238" s="13">
         <v>0.0</v>
       </c>
-      <c r="H238" s="14">
+      <c r="H238" s="13">
         <v>0.0</v>
       </c>
-      <c r="I238" s="14">
+      <c r="I238" s="13">
         <v>0.0</v>
       </c>
-      <c r="J238" s="14">
+      <c r="J238" s="13">
         <v>0.0</v>
       </c>
-      <c r="K238" s="14">
+      <c r="K238" s="13">
         <v>0.0</v>
       </c>
-      <c r="L238" s="14">
+      <c r="L238" s="13">
         <v>0.0</v>
       </c>
-      <c r="M238" s="14">
+      <c r="M238" s="13">
         <v>0.0</v>
       </c>
-      <c r="N238" s="14">
+      <c r="N238" s="13">
         <v>0.0</v>
       </c>
-      <c r="O238" s="14">
+      <c r="O238" s="13">
         <v>0.0</v>
       </c>
-      <c r="P238" s="14">
+      <c r="P238" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q238" s="14">
+      <c r="Q238" s="13">
         <v>0.0</v>
       </c>
-      <c r="R238" s="14">
+      <c r="R238" s="13">
         <v>0.0</v>
       </c>
-      <c r="S238" s="14">
+      <c r="S238" s="13">
         <v>0.0</v>
       </c>
-      <c r="T238" s="14">
+      <c r="T238" s="13">
         <v>0.0</v>
       </c>
-      <c r="U238" s="14">
+      <c r="U238" s="13">
         <v>0.0</v>
       </c>
       <c r="V238" s="5"/>
@@ -16901,67 +16912,67 @@
       <c r="Y238" s="5"/>
     </row>
     <row r="239">
-      <c r="A239" s="11">
+      <c r="A239" s="9">
         <v>2023.0</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C239" s="14">
+      <c r="C239" s="13">
         <v>0.0</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="14">
         <v>0.0</v>
       </c>
-      <c r="E239" s="14">
+      <c r="E239" s="13">
         <v>0.0</v>
       </c>
-      <c r="F239" s="14">
+      <c r="F239" s="13">
         <v>0.0</v>
       </c>
-      <c r="G239" s="14">
+      <c r="G239" s="13">
         <v>0.0</v>
       </c>
-      <c r="H239" s="14">
+      <c r="H239" s="13">
         <v>0.0</v>
       </c>
-      <c r="I239" s="14">
+      <c r="I239" s="13">
         <v>0.0</v>
       </c>
-      <c r="J239" s="14">
+      <c r="J239" s="13">
         <v>0.0</v>
       </c>
-      <c r="K239" s="14">
+      <c r="K239" s="13">
         <v>0.0</v>
       </c>
-      <c r="L239" s="14">
+      <c r="L239" s="13">
         <v>0.0</v>
       </c>
-      <c r="M239" s="14">
+      <c r="M239" s="13">
         <v>0.0</v>
       </c>
-      <c r="N239" s="14">
+      <c r="N239" s="13">
         <v>0.0</v>
       </c>
-      <c r="O239" s="14">
+      <c r="O239" s="13">
         <v>0.0</v>
       </c>
-      <c r="P239" s="14">
+      <c r="P239" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q239" s="14">
+      <c r="Q239" s="13">
         <v>0.0</v>
       </c>
-      <c r="R239" s="14">
+      <c r="R239" s="13">
         <v>0.0</v>
       </c>
-      <c r="S239" s="14">
+      <c r="S239" s="13">
         <v>0.0</v>
       </c>
-      <c r="T239" s="14">
+      <c r="T239" s="13">
         <v>0.0</v>
       </c>
-      <c r="U239" s="14">
+      <c r="U239" s="13">
         <v>0.0</v>
       </c>
       <c r="V239" s="5"/>
@@ -16970,67 +16981,67 @@
       <c r="Y239" s="5"/>
     </row>
     <row r="240">
-      <c r="A240" s="11">
+      <c r="A240" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C240" s="14">
+      <c r="C240" s="13">
         <v>0.0</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="14">
         <v>0.0</v>
       </c>
-      <c r="E240" s="14">
+      <c r="E240" s="13">
         <v>0.0</v>
       </c>
-      <c r="F240" s="14">
+      <c r="F240" s="13">
         <v>0.0</v>
       </c>
-      <c r="G240" s="14">
+      <c r="G240" s="13">
         <v>0.0</v>
       </c>
-      <c r="H240" s="14">
+      <c r="H240" s="13">
         <v>0.0</v>
       </c>
-      <c r="I240" s="14">
+      <c r="I240" s="13">
         <v>0.0</v>
       </c>
-      <c r="J240" s="14">
+      <c r="J240" s="13">
         <v>0.0</v>
       </c>
-      <c r="K240" s="14">
+      <c r="K240" s="13">
         <v>0.0</v>
       </c>
-      <c r="L240" s="14">
+      <c r="L240" s="13">
         <v>0.0</v>
       </c>
-      <c r="M240" s="14">
+      <c r="M240" s="13">
         <v>0.0</v>
       </c>
-      <c r="N240" s="14">
+      <c r="N240" s="13">
         <v>0.0</v>
       </c>
-      <c r="O240" s="14">
+      <c r="O240" s="13">
         <v>0.0</v>
       </c>
-      <c r="P240" s="14">
+      <c r="P240" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q240" s="14">
+      <c r="Q240" s="13">
         <v>0.0</v>
       </c>
-      <c r="R240" s="14">
+      <c r="R240" s="13">
         <v>0.0</v>
       </c>
-      <c r="S240" s="14">
+      <c r="S240" s="13">
         <v>0.0</v>
       </c>
-      <c r="T240" s="14">
+      <c r="T240" s="13">
         <v>0.0</v>
       </c>
-      <c r="U240" s="14">
+      <c r="U240" s="13">
         <v>0.0</v>
       </c>
       <c r="V240" s="5"/>
@@ -17039,67 +17050,67 @@
       <c r="Y240" s="5"/>
     </row>
     <row r="241">
-      <c r="A241" s="16">
+      <c r="A241" s="15">
         <v>2023.0</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C241" s="14">
+      <c r="C241" s="13">
         <v>0.0</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="14">
         <v>0.0</v>
       </c>
-      <c r="E241" s="14">
+      <c r="E241" s="13">
         <v>0.0</v>
       </c>
-      <c r="F241" s="14">
+      <c r="F241" s="13">
         <v>0.0</v>
       </c>
-      <c r="G241" s="14">
+      <c r="G241" s="13">
         <v>0.0</v>
       </c>
-      <c r="H241" s="14">
+      <c r="H241" s="13">
         <v>0.0</v>
       </c>
-      <c r="I241" s="14">
+      <c r="I241" s="13">
         <v>0.0</v>
       </c>
-      <c r="J241" s="14">
+      <c r="J241" s="13">
         <v>0.0</v>
       </c>
-      <c r="K241" s="14">
+      <c r="K241" s="13">
         <v>0.0</v>
       </c>
-      <c r="L241" s="14">
+      <c r="L241" s="13">
         <v>0.0</v>
       </c>
-      <c r="M241" s="14">
+      <c r="M241" s="13">
         <v>0.0</v>
       </c>
-      <c r="N241" s="14">
+      <c r="N241" s="13">
         <v>0.0</v>
       </c>
-      <c r="O241" s="14">
+      <c r="O241" s="13">
         <v>0.0</v>
       </c>
-      <c r="P241" s="14">
+      <c r="P241" s="13">
         <v>0.0</v>
       </c>
-      <c r="Q241" s="14">
+      <c r="Q241" s="13">
         <v>0.0</v>
       </c>
-      <c r="R241" s="14">
+      <c r="R241" s="13">
         <v>0.0</v>
       </c>
-      <c r="S241" s="14">
+      <c r="S241" s="13">
         <v>0.0</v>
       </c>
-      <c r="T241" s="14">
+      <c r="T241" s="13">
         <v>0.0</v>
       </c>
-      <c r="U241" s="14">
+      <c r="U241" s="13">
         <v>0.0</v>
       </c>
       <c r="V241" s="5"/>
